--- a/Finflux Automation Excels/Client/5031-DISBURSELOANon01DEC2014-RUNSCHEDULERJOB-VIEWJOURNALENTRIES-NPA-LessRepaymentEarlyDate.xlsx
+++ b/Finflux Automation Excels/Client/5031-DISBURSELOANon01DEC2014-RUNSCHEDULERJOB-VIEWJOURNALENTRIES-NPA-LessRepaymentEarlyDate.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +159,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -193,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -214,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +625,8 @@
       <c r="E3" s="6">
         <v>61.31</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
+      <c r="F3" s="9">
+        <v>142.93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -662,6 +671,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1496,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
